--- a/biology/Médecine/Muscle_splénius_de_la_tête/Muscle_splénius_de_la_tête.xlsx
+++ b/biology/Médecine/Muscle_splénius_de_la_tête/Muscle_splénius_de_la_tête.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_spl%C3%A9nius_de_la_t%C3%AAte</t>
+          <t>Muscle_splénius_de_la_tête</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle splénius de la tête est un large muscle en forme de lanière à l'arrière du cou. Il tire sur la Base du crâne à partir des vertèbres du cou et du haut du thorax. Il est impliqué dans des mouvements tels que secouer la tête.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_spl%C3%A9nius_de_la_t%C3%AAte</t>
+          <t>Muscle_splénius_de_la_tête</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Le muscle splénius de la tête naît de la moitié inférieure du ligament nuchal, de l'apophyse épineuse de la septième vertèbre cervicale et des apophyses épineuses des trois premières vertèbres thoraciques.
-Trajet
-Les fibres musculaires se dirigent obliquement en haut, en dehors et en avant.
-Terminaison
-Il se termine en arrière du muscle sterno-cléido-mastoïdien sur la moitié latérale de la ligne nuchale supérieure et sur la face latérale du processus mastoïdien de l'os temporal.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle splénius de la tête naît de la moitié inférieure du ligament nuchal, de l'apophyse épineuse de la septième vertèbre cervicale et des apophyses épineuses des trois premières vertèbres thoraciques.
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_spl%C3%A9nius_de_la_t%C3%AAte</t>
+          <t>Muscle_splénius_de_la_tête</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le muscle splénius de la tête est innervé par un rameau du nerf grand occipital et les branches postérieures des cinq premiers nerfs spinaux cervicaux.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fibres musculaires se dirigent obliquement en haut, en dehors et en avant.
 </t>
         </is>
       </c>
@@ -560,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_spl%C3%A9nius_de_la_t%C3%AAte</t>
+          <t>Muscle_splénius_de_la_tête</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le muscle splénius de la tête est le moteur principal de l'extension de la tête. Par action monolatérale, il permet une flexion latérale et une rotation du rachis cervical.
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se termine en arrière du muscle sterno-cléido-mastoïdien sur la moitié latérale de la ligne nuchale supérieure et sur la face latérale du processus mastoïdien de l'os temporal.
 </t>
         </is>
       </c>
@@ -591,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_spl%C3%A9nius_de_la_t%C3%AAte</t>
+          <t>Muscle_splénius_de_la_tête</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,12 +631,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle splénius de la tête est innervé par un rameau du nerf grand occipital et les branches postérieures des cinq premiers nerfs spinaux cervicaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_splénius_de_la_tête</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_spl%C3%A9nius_de_la_t%C3%AAte</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle splénius de la tête est le moteur principal de l'extension de la tête. Par action monolatérale, il permet une flexion latérale et une rotation du rachis cervical.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_splénius_de_la_tête</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_spl%C3%A9nius_de_la_t%C3%AAte</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'injection de toxine botulique dans ce muscle permet d'améliorer le tremblement essentiel de la tête[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'injection de toxine botulique dans ce muscle permet d'améliorer le tremblement essentiel de la tête.
 </t>
         </is>
       </c>
